--- a/实战案例3/第19节/要导入的数据/data.xlsx
+++ b/实战案例3/第19节/要导入的数据/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\mycourse\time-geekbang-org-rag\实战案例3\第19节\要导入的数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE789DAC-A056-461C-AA32-969CF5529B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容在分段中的顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计站点拓扑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/zh-cn/windows-server/identity/ad-ds/plan/designing-the-site-topology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsof Learn官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录服务站点拓扑是物理网络的逻辑表示形式。 为 Active Directory 域服务 (AD DS) 设计站点拓扑涉及规划域控制器放置和设计站点、子网、站点链接和站点链接桥，以确保有效路由查询和复制流量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计站点拓扑有助于有效路由客户端查询和 Active Directory 复制流量。 设计良好的站点拓扑可帮助组织实现以下优势：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大程度地降低复制 Active Directory 数据的成本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大程度地减少维护站点拓扑所需的管理工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划复制，使具有慢速或拨号网络链接的位置能够在非高峰时段复制 Active Directory 数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化客户端计算机查找最近的资源（例如域控制器和分布式文件系统 (DFS) 服务器）的能力。 这有助于减少慢速广域网 (WAN) 链接上的网络流量，改进登录和注销过程，并加快文件下载操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在开始设计站点拓扑之前，必须了解物理网络结构。 此外，必须先设计 Active Directory 逻辑结构，包括每个林的管理层次结构、林计划和域计划。 还必须完成 AD DS 的域名系统 (DNS) 基础结构设计。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成站点拓扑设计后，必须验证域控制器是否满足 Windows Server 2008 Standard、Windows Server 2008 Enterprise 和 Windows Server 2008 Datacenter 的硬件要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定所需的林数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/zh-cn/windows-server/identity/ad-ds/plan/determining-the-number-of-forests-required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要确定必须部署的林数，需要仔细确定并评估组织中每个组的隔离和自治要求，并将这些要求映射到相应的林设计模型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定要为组织部署的林数时，请考虑以下事项：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离要求限制了设计选择。 因此，如果确定隔离要求，请确保这些组确实需要数据隔离，并且数据自治不足以满足其需求。 确保组织中的各个组清楚地了解隔离和自治的概念。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对设计进行协商可能是一个漫长的过程。 各个组可能很难就可用资源的所有权和使用达成一致。 请确保留出足够的时间，让组织中的组进行足够的研究以确定其需求。 为设计决策设定明确的截止日期，并就既定的截止日期征得各方的共识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定要部署的林数涉及平衡成本与收益。 单林模型是最具成本效益的选择，需要的管理开销最少。 尽管组织中的某个组可能更喜欢自主服务运营，但对于组织来说，从集中且可信的信息技术 (IT) 组订阅服务交付可能更具成本效益。 这样就可以让该组负责数据管理，不会增加服务管理的成本。 平衡成本与收益可能需要执行发起人进行投入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个林是最容易管理的配置。 它允许在环境中进行最大程度的协作，因为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个林中的所有对象都列在全局目录中。 因此，不需要跨林同步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要管理重复的基础结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不建议由两个独立的自主 IT 组织共同拥有单个林。 两个 IT 组的目标在未来可能会发生变化，以至于他们无法再接受共同控制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不建议将服务管理外包给多个外部合作伙伴。 在不同国家或地区设有组的跨国组织可能会选择将服务管理外包给每个国家或地区的不同外部合作伙伴。 由于多个外部合作伙伴不能彼此隔离，一个合作伙伴的行为可能会影响另一个合作伙伴的服务，因此合作伙伴难以对其服务级别协议负责。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何时候都应该只存在一个 Active Directory 域实例。 Microsoft 不支持从一个域克隆、拆分或复制域控制器以尝试建立同一域的第二个实例。 有关此限制的详细信息，请参阅以下部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,16 +196,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +238,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}" name="表1" displayName="表1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5AD4FAB1-8C03-4C14-AC56-2BFC34368483}" name="标题"/>
+    <tableColumn id="2" xr3:uid="{2E6266AA-9945-4B47-8393-289223621432}" name="url" dataDxfId="0" dataCellStyle="超链接"/>
+    <tableColumn id="3" xr3:uid="{3735FE0A-3408-4784-95DC-2B2801805B01}" name="创建时间" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{76279DEB-413C-40A5-80E0-39CDD5AC8A5E}" name="作者"/>
+    <tableColumn id="5" xr3:uid="{C21884EF-7D47-4E8D-BBE6-CAEF4FD17594}" name="权限"/>
+    <tableColumn id="6" xr3:uid="{A92B4093-8B8D-4F8E-84BD-5CAA7BBDAB2E}" name="文本内容" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{01E8D6C7-EC38-42AE-9230-184204747D08}" name="内容在分段中的顺序"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +518,452 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.875" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45598</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B32540FB-CB57-45F7-8C64-43218ADB92EC}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{9CE53E9E-B56D-4ECC-8CBF-06B0153F2A66}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{D7EF18C2-E701-45D4-8441-70B3A2578880}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{C73BCFBE-B99E-4894-9615-2178A4C67FA7}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{F1171078-54B6-443F-A82D-0887577485E3}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{8D9A7809-277F-4EC3-8D7A-8C7121899720}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{5DF9BF6A-E327-40D0-86B7-495CA01F6263}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{4A2DAE5A-29D0-4C08-B897-1274351F07E5}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{3883C18B-E5A4-4CB5-8435-753C84AE4B21}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7091CEDA-58C7-4E73-96C4-A07A98A56CAD}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F3FB04A4-197C-4B30-807C-D6086303A46D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{94F4B8E9-B4D6-4776-A105-3D8409CEB537}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{671EC16A-BF4D-4EED-A151-050BF89510CB}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{57E288E3-A981-40E3-A3AD-8F0D9D980EF2}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{8476BECF-D3F8-406D-B69E-1A53359AF205}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{4F2560C2-5DB2-4D36-9558-C0AF07C4E8DB}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{09697D4E-4A88-430A-A1A4-741A79C01920}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{0DB8F342-5D61-4AEF-B243-C546EF519EB3}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{971DC437-53C0-4C5C-BB8D-0DBD535F3A2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId20"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/实战案例3/第19节/要导入的数据/data.xlsx
+++ b/实战案例3/第19节/要导入的数据/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\mycourse\time-geekbang-org-rag\实战案例3\第19节\要导入的数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98D7084-8C96-4C51-AF54-DA0ECFF3E036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F46F0-9C1C-4463-8034-CCF323CC4EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="55">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>https://learn.microsoft.com/zh-cn/iis/extensions/using-iis-express/running-iis-express-from-the-command-line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识主表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识详细表记录id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,9 +339,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}" name="表1" displayName="表1" ref="A1:H33" totalsRowShown="0">
-  <autoFilter ref="A1:H33" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}" name="表1" displayName="表1" ref="A1:J33" totalsRowShown="0">
+  <autoFilter ref="A1:J33" xr:uid="{52228FEB-FECF-4968-B35B-9468306A48EB}"/>
+  <tableColumns count="10">
+    <tableColumn id="9" xr3:uid="{CCF5CE71-4DDD-4393-8AC0-E361294A62AB}" name="知识主表id"/>
+    <tableColumn id="10" xr3:uid="{278DAE25-69AE-4530-9163-F82B54DE6478}" name="知识详细表记录id"/>
     <tableColumn id="1" xr3:uid="{5AD4FAB1-8C03-4C14-AC56-2BFC34368483}" name="模块"/>
     <tableColumn id="8" xr3:uid="{D409614B-BF7C-49AE-A713-06231C399EEE}" name="标题"/>
     <tableColumn id="2" xr3:uid="{2E6266AA-9945-4B47-8393-289223621432}" name="url" dataDxfId="2" dataCellStyle="超链接"/>
@@ -610,810 +620,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="85.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.875" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="2" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.875" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="J17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2">
-        <v>45598</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="2">
+        <v>45598</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="G33" s="1" t="s">
+    <row r="33" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B32540FB-CB57-45F7-8C64-43218ADB92EC}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{9CE53E9E-B56D-4ECC-8CBF-06B0153F2A66}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{D7EF18C2-E701-45D4-8441-70B3A2578880}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C73BCFBE-B99E-4894-9615-2178A4C67FA7}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{F1171078-54B6-443F-A82D-0887577485E3}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{8D9A7809-277F-4EC3-8D7A-8C7121899720}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{5DF9BF6A-E327-40D0-86B7-495CA01F6263}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{4A2DAE5A-29D0-4C08-B897-1274351F07E5}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{3883C18B-E5A4-4CB5-8435-753C84AE4B21}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{7091CEDA-58C7-4E73-96C4-A07A98A56CAD}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{F3FB04A4-197C-4B30-807C-D6086303A46D}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{94F4B8E9-B4D6-4776-A105-3D8409CEB537}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{671EC16A-BF4D-4EED-A151-050BF89510CB}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{57E288E3-A981-40E3-A3AD-8F0D9D980EF2}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{8476BECF-D3F8-406D-B69E-1A53359AF205}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{4F2560C2-5DB2-4D36-9558-C0AF07C4E8DB}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{09697D4E-4A88-430A-A1A4-741A79C01920}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{0DB8F342-5D61-4AEF-B243-C546EF519EB3}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{971DC437-53C0-4C5C-BB8D-0DBD535F3A2A}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{0A1C87FF-D4A1-4210-A0EF-652290639D77}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{CFA35318-6E98-42A4-857E-867519F95A22}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{1AAB6A4E-1A1C-46BD-97C1-EE7A8A9ED3A5}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{48489D7E-18AC-4DEF-8B60-E72FC7D802DA}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{D3E9BAB3-7594-4B7C-91A7-BF1149D8533C}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{CE032ECE-8C1B-4181-9E4C-81094CC9E166}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{BD854F3D-537F-468B-AC0F-0AE80F0504B3}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{4A1021A1-4A18-4972-8BD1-A4860B43D106}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{94815811-8634-4B2A-BBF9-F1BBA737A97C}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{8BA3DA42-30E4-4A8F-BFF2-D9D9258E59EB}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{8466C143-2D87-45E2-8355-AD5A57159F7C}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{D67E1783-7D26-4A7E-8C11-6908A77F75E1}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B32540FB-CB57-45F7-8C64-43218ADB92EC}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{9CE53E9E-B56D-4ECC-8CBF-06B0153F2A66}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{D7EF18C2-E701-45D4-8441-70B3A2578880}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{C73BCFBE-B99E-4894-9615-2178A4C67FA7}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{F1171078-54B6-443F-A82D-0887577485E3}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{8D9A7809-277F-4EC3-8D7A-8C7121899720}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{5DF9BF6A-E327-40D0-86B7-495CA01F6263}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{4A2DAE5A-29D0-4C08-B897-1274351F07E5}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{3883C18B-E5A4-4CB5-8435-753C84AE4B21}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{7091CEDA-58C7-4E73-96C4-A07A98A56CAD}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{F3FB04A4-197C-4B30-807C-D6086303A46D}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{94F4B8E9-B4D6-4776-A105-3D8409CEB537}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{671EC16A-BF4D-4EED-A151-050BF89510CB}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{57E288E3-A981-40E3-A3AD-8F0D9D980EF2}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{8476BECF-D3F8-406D-B69E-1A53359AF205}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{4F2560C2-5DB2-4D36-9558-C0AF07C4E8DB}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{09697D4E-4A88-430A-A1A4-741A79C01920}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{0DB8F342-5D61-4AEF-B243-C546EF519EB3}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{971DC437-53C0-4C5C-BB8D-0DBD535F3A2A}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{0A1C87FF-D4A1-4210-A0EF-652290639D77}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{CFA35318-6E98-42A4-857E-867519F95A22}"/>
+    <hyperlink ref="E23" r:id="rId22" xr:uid="{1AAB6A4E-1A1C-46BD-97C1-EE7A8A9ED3A5}"/>
+    <hyperlink ref="E24" r:id="rId23" xr:uid="{48489D7E-18AC-4DEF-8B60-E72FC7D802DA}"/>
+    <hyperlink ref="E25" r:id="rId24" xr:uid="{D3E9BAB3-7594-4B7C-91A7-BF1149D8533C}"/>
+    <hyperlink ref="E26" r:id="rId25" xr:uid="{CE032ECE-8C1B-4181-9E4C-81094CC9E166}"/>
+    <hyperlink ref="E27" r:id="rId26" xr:uid="{BD854F3D-537F-468B-AC0F-0AE80F0504B3}"/>
+    <hyperlink ref="E28" r:id="rId27" xr:uid="{4A1021A1-4A18-4972-8BD1-A4860B43D106}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{94815811-8634-4B2A-BBF9-F1BBA737A97C}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{8BA3DA42-30E4-4A8F-BFF2-D9D9258E59EB}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{8466C143-2D87-45E2-8355-AD5A57159F7C}"/>
+    <hyperlink ref="E32" r:id="rId31" xr:uid="{D67E1783-7D26-4A7E-8C11-6908A77F75E1}"/>
+    <hyperlink ref="E33" r:id="rId32" xr:uid="{98211C09-7674-4F73-8AB3-8A3315000411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/实战案例3/第19节/要导入的数据/data.xlsx
+++ b/实战案例3/第19节/要导入的数据/data.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\mycourse\time-geekbang-org-rag\实战案例3\第19节\要导入的数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F46F0-9C1C-4463-8034-CCF323CC4EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFE3A-4C25-442C-A4D7-C9564753538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -622,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -698,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -727,7 +736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -756,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -785,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -814,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -843,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -872,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -901,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -930,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -959,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="114" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -988,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="171" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1336,7 +1345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="171" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1423,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
